--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="2115"/>
   </bookViews>
   <sheets>
     <sheet name="most-common-verbs-english" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="3973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="3975">
   <si>
     <t>Word</t>
   </si>
@@ -11938,6 +11934,12 @@
   </si>
   <si>
     <t>classified</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -12746,7 +12748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12771,6 +12775,18 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3974</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="2115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="3435"/>
   </bookViews>
   <sheets>
     <sheet name="most-common-verbs-english" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="3975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4949" uniqueCount="3977">
   <si>
     <t>Word</t>
   </si>
@@ -11936,10 +11936,16 @@
     <t>classified</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
   </si>
 </sst>
 </file>
@@ -12781,11 +12787,11 @@
       <c r="C2" t="s">
         <v>3974</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3976</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="2115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="3435"/>
   </bookViews>
   <sheets>
     <sheet name="most-common-verbs-english" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="3975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="3973">
   <si>
     <t>Word</t>
   </si>
@@ -11934,12 +11934,6 @@
   </si>
   <si>
     <t>classified</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -12749,7 +12743,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12775,17 +12769,17 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>3973</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3974</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
